--- a/retrieved_messages.xlsx
+++ b/retrieved_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>haina ta &lt;@536364324818518017&gt;</t>
+          <t>Northern lights cha</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>im wondaring</t>
+          <t>k cha</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>yess to elderly and paralyzed and livng martyr too</t>
+          <t>https://www.instagram.com/reel/C7nf5JISGAe/?igsh=MmphZnUzb2IzdzFm</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>but aint discord giving tribute to , that gay thing called lgb randi q ??</t>
+          <t>&lt;@695948256580075560&gt; yo k ho shri bata garamna shoutout paucha</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,461 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>how cum discord give u tribute</t>
+          <t>https://www.facebook.com/muji.damai.3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://docs.google.com/spreadsheets/d/1xxSAFPNAX5FTI8nkIp1mD5wA9S-DTOxAgKXgGGZa_f4/edit#gid=873749439
+Esma all wala sheet nachalau tara
+neutral scam sexual ra threaten chai bhara ta sabai jana
+sabai ma 2k each huna parcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>social media bata copy paste handai garna parcha aru upaya chaina aba 
+scrapping garda label garna lyang hunevo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>romanized nepali ma shitpost hanne khojera deuna &lt;@662561785622036493&gt; 
+copy paste handai bharchu boru</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tyo duniya tira nagako dherai bhayecha, khojchu ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Shitpost choddeu</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sexual ra threaten ko sheet vardeuna 2k each</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>omg 2k each</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jasto data vaeni huncha variety hos ali ali</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>asti ko maile banako thele?</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ali ali use bhayo aru neutral ma jancha praya sabai</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sexual harrasment ra threaten chai chaiyo halka</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ka neutral ma hau</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>kun bhaneko</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Muji lore etc etc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wala haina</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tyo haina</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>&lt;@493404192887668746&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Esko threaten sheet section ma paste handeuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tara yota halisakya hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Asti pathako wala hainara</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>umm random threats bhanne</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>J hoss esma herata data haru maile pathako google sheets ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>chaina haleko</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>label ta chaina ta ani</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>yo jpt kura haru ni cha ta</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>+ GPT generated ta jpt nai cha</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ah tyo pachi milauchu</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Label All ma afai set huncha
+Respective sheet ma Data varne matra ho</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>&lt;@493404192887668746&gt;  public appeal garnu parcha ki kyaho</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>plz sext me bhanera</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sext me in roman nepali</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ma timro dudh chusdai timro galaa dabauna chahanchu</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>😂</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>&lt;@493404192887668746&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>naya sheet ma ni aaudaicha hai</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>"who up for ML" bhanera gc ma lekheko, haat uthaune lai sheets theldine</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>la kta harlai top sponser handim boru 2 ghanta basera 2k entry chaiyo</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>thait</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>alik harassment sentiment chaiyo</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>binayak ra alwin lai jabarjasti chausaidiye.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>@everyone</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Huh</t>
         </is>
       </c>
     </row>
